--- a/01-note-paper/01-magic-cube/3-平面坐标原点在左下角.xlsx
+++ b/01-note-paper/01-magic-cube/3-平面坐标原点在左下角.xlsx
@@ -4,23 +4,67 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
   <si>
+    <t>]     =</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locked[</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locked[nodeid]标记环内链路nodeid到nodeid+1这段使用情况，例子，len=9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -30,24 +74,26 @@
   </si>
   <si>
     <t>0,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,8</t>
-  </si>
-  <si>
-    <t>1,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -55,240 +101,255 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,8</t>
-  </si>
-  <si>
-    <t>2,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2</t>
-  </si>
-  <si>
-    <t>3,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,2</t>
-  </si>
-  <si>
-    <t>8,3</t>
-  </si>
-  <si>
-    <t>8,4</t>
-  </si>
-  <si>
-    <t>8,5</t>
-  </si>
-  <si>
-    <t>8,6</t>
-  </si>
-  <si>
-    <t>8,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8,8</t>
-  </si>
-  <si>
-    <t>7,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,2</t>
-  </si>
-  <si>
-    <t>7,3</t>
-  </si>
-  <si>
-    <t>7,4</t>
-  </si>
-  <si>
-    <t>7,5</t>
-  </si>
-  <si>
-    <t>7,6</t>
-  </si>
-  <si>
-    <t>7,7</t>
-  </si>
-  <si>
-    <t>7,8</t>
-  </si>
-  <si>
-    <t>6,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,2</t>
-  </si>
-  <si>
-    <t>6,3</t>
-  </si>
-  <si>
-    <t>6,4</t>
-  </si>
-  <si>
-    <t>6,5</t>
-  </si>
-  <si>
-    <t>6,6</t>
-  </si>
-  <si>
-    <t>6,7</t>
-  </si>
-  <si>
-    <t>6,8</t>
-  </si>
-  <si>
-    <t>5,2</t>
-  </si>
-  <si>
-    <t>5,3</t>
-  </si>
-  <si>
-    <t>5,4</t>
-  </si>
-  <si>
-    <t>5,5</t>
-  </si>
-  <si>
-    <t>5,6</t>
-  </si>
-  <si>
-    <t>5,7</t>
-  </si>
-  <si>
-    <t>5,8</t>
-  </si>
-  <si>
-    <t>4,2</t>
-  </si>
-  <si>
-    <t>4,3</t>
-  </si>
-  <si>
-    <t>4,4</t>
-  </si>
-  <si>
-    <t>4,5</t>
-  </si>
-  <si>
-    <t>4,6</t>
-  </si>
-  <si>
-    <t>4,7</t>
-  </si>
-  <si>
-    <t>4,8</t>
-  </si>
-  <si>
-    <t>3,2</t>
-  </si>
-  <si>
-    <t>3,3</t>
-  </si>
-  <si>
-    <t>3,4</t>
-  </si>
-  <si>
-    <t>3,5</t>
-  </si>
-  <si>
-    <t>3,6</t>
-  </si>
-  <si>
-    <t>3,7</t>
-  </si>
-  <si>
-    <t>3,8</t>
-  </si>
-  <si>
-    <t>2,3</t>
-  </si>
-  <si>
-    <t>2,4</t>
-  </si>
-  <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>2,6</t>
-  </si>
-  <si>
-    <t>2,7</t>
-  </si>
-  <si>
-    <t>2,8</t>
-  </si>
-  <si>
-    <t>]     =</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Locked[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Locked[nodeid]标记环内链路nodeid到nodeid+1这段使用情况，例子，len=9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -314,7 +375,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -330,7 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,15 +425,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -384,6 +436,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -756,273 +811,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E11:M24"/>
+  <dimension ref="E14:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:H34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="11" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E11" s="1" t="s">
+    <row r="14" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="I21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="J21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="K21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="L21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="M21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E18" s="1" t="s">
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="L22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="M22" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="24" spans="5:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1037,7 +1092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D14:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1048,135 +1103,135 @@
   <sheetData>
     <row r="14" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>81</v>
+      <c r="D16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="D17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>81</v>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
-      <c r="I17" s="8"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D18" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="D18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
         <v>2</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>81</v>
+      <c r="F18" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
-      <c r="I18" s="8"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D19" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="D19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
         <v>3</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>81</v>
+      <c r="F19" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
-      <c r="I19" s="8"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D20" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
         <v>4</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>81</v>
+      <c r="F20" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D21" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="D21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
         <v>5</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>81</v>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D22" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="D22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
         <v>6</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>81</v>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D23" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="D23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
         <v>7</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>81</v>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D24" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="D24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
         <v>8</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>81</v>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
